--- a/Work_Log/Kevin_Hours_Log.xlsx
+++ b/Work_Log/Kevin_Hours_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\K_Documents\CEN4908C\Senior_Design_TI_Project\Work_Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D7D15A-4B03-4A39-B285-C3D7DFAA563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0479C94F-2D42-45A2-B89A-EA5B4D6B0C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="-3690" windowWidth="19410" windowHeight="20985" xr2:uid="{1E1DE2E1-E43F-4C7B-805F-E7F882405594}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1E1DE2E1-E43F-4C7B-805F-E7F882405594}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Kevin Su Senior Design Work Log</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Added and wired FTDI- USB to SPI converter and FTDI EEPROM.</t>
+  </si>
+  <si>
+    <t>Completed drawing IWRL6432AOP and wired it in the schematic along with an clock oscillator and power sources.</t>
   </si>
 </sst>
 </file>
@@ -509,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5815A0D-EF96-486C-AACC-708D8CEA56AE}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,6 +523,7 @@
     <col min="1" max="1" width="30.6328125" customWidth="1"/>
     <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -827,6 +831,26 @@
         <v>19</v>
       </c>
     </row>
+    <row r="17" spans="2:7" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45682</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Work_Log/Kevin_Hours_Log.xlsx
+++ b/Work_Log/Kevin_Hours_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\K_Documents\CEN4908C\Senior_Design_TI_Project\Work_Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0479C94F-2D42-45A2-B89A-EA5B4D6B0C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394D6D5C-2C99-45FF-A6D8-77602B70ECDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1E1DE2E1-E43F-4C7B-805F-E7F882405594}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Kevin Su Senior Design Work Log</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Completed drawing IWRL6432AOP and wired it in the schematic along with an clock oscillator and power sources.</t>
+  </si>
+  <si>
+    <t>Added AWRL6432AOP supply decoupling capacitors and QSPI Flash.</t>
   </si>
 </sst>
 </file>
@@ -512,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5815A0D-EF96-486C-AACC-708D8CEA56AE}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:H23"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -851,6 +854,26 @@
         <v>20</v>
       </c>
     </row>
+    <row r="18" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45683</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.73472222222222228</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Work_Log/Kevin_Hours_Log.xlsx
+++ b/Work_Log/Kevin_Hours_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\K_Documents\CEN4908C\Senior_Design_TI_Project\Work_Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394D6D5C-2C99-45FF-A6D8-77602B70ECDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1EBE15-4952-4A90-B4EA-290C3ADC15D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1E1DE2E1-E43F-4C7B-805F-E7F882405594}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Kevin Su Senior Design Work Log</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>Added AWRL6432AOP supply decoupling capacitors and QSPI Flash.</t>
+  </si>
+  <si>
+    <t>Modified Power Supplies and signal/net routing for AWRL6432AOP schematic.</t>
+  </si>
+  <si>
+    <t>Added decoupling capacitors for schematic along with Flash memory.</t>
+  </si>
+  <si>
+    <t>Assisted team in data collection for ML model for sitting and standing classes.</t>
   </si>
 </sst>
 </file>
@@ -515,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5815A0D-EF96-486C-AACC-708D8CEA56AE}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -714,7 +723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="151.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -734,7 +743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="264" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -754,12 +763,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3">
-        <v>45675</v>
+        <v>46040</v>
       </c>
       <c r="D13" s="4">
         <v>0.83333333333333337</v>
@@ -774,12 +783,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>45676</v>
+        <v>46041</v>
       </c>
       <c r="D14" s="4">
         <v>0.58333333333333337</v>
@@ -794,12 +803,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="3">
-        <v>45677</v>
+        <v>46042</v>
       </c>
       <c r="D15" s="4">
         <v>0.625</v>
@@ -814,12 +823,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="114" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="3">
-        <v>45679</v>
+        <v>46044</v>
       </c>
       <c r="D16" s="4">
         <v>0.70833333333333337</v>
@@ -839,7 +848,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="3">
-        <v>45682</v>
+        <v>46047</v>
       </c>
       <c r="D17" s="4">
         <v>0.45833333333333331</v>
@@ -859,10 +868,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="3">
-        <v>45683</v>
+        <v>46048</v>
       </c>
       <c r="D18" s="4">
-        <v>0.10416666666666667</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E18" s="4">
         <v>0.73472222222222228</v>
@@ -872,6 +881,66 @@
       </c>
       <c r="G18" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
+        <v>46054</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
+        <v>46057</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.1875</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
+        <v>46060</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Work_Log/Kevin_Hours_Log.xlsx
+++ b/Work_Log/Kevin_Hours_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\K_Documents\CEN4908C\Senior_Design_TI_Project\Work_Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1EBE15-4952-4A90-B4EA-290C3ADC15D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D138FB0-0EF2-439A-B2C0-03766087552C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1E1DE2E1-E43F-4C7B-805F-E7F882405594}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Kevin Su Senior Design Work Log</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Assisted team in data collection for ML model for sitting and standing classes.</t>
+  </si>
+  <si>
+    <t>Added GPIO for power and data along with pull up resistors.</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5815A0D-EF96-486C-AACC-708D8CEA56AE}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -943,6 +946,26 @@
         <v>24</v>
       </c>
     </row>
+    <row r="22" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
+        <v>46061</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F22" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
